--- a/excel-top-n-parameters-demo.xlsx
+++ b/excel-top-n-parameters-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E624A414-445F-4559-A59D-A75790BCBAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CCFC4E-3BBB-4EBA-BACC-661A5781D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{7790F0D4-990A-4B75-82E9-9F396F85C19E}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDB076-7F0A-42E8-AE6F-D408FF186163}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -551,9 +573,13 @@
     <col min="4" max="4" width="15.578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1015625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.47265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,10 +599,10 @@
         <v>35</v>
       </c>
       <c r="H1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -593,7 +619,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -610,7 +636,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -627,7 +653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -643,8 +669,26 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" t="str" cm="1">
+        <f t="array" ref="G5:K8">_xlfn.VSTACK(hero_sales[#Headers],
+  _xlfn._xlws.SORT(_xlfn._xlws.FILTER(hero_sales[],
+        hero_sales[Gadget Sales ($)] &gt;= LARGE(hero_sales[Gadget Sales ($)], H1)    ), 4, -1))</f>
+        <v>Hero ID</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Superhero Name</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Region</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Gadget Sales ($)</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Gadgets Sold</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -660,8 +704,23 @@
       <c r="E6">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" t="str">
+        <v>H009</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Laser Girl</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Blaze Town</v>
+      </c>
+      <c r="J6">
+        <v>21000</v>
+      </c>
+      <c r="K6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -677,8 +736,23 @@
       <c r="E7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" t="str">
+        <v>H005</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Quantum Kid</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Star City</v>
+      </c>
+      <c r="J7">
+        <v>20700</v>
+      </c>
+      <c r="K7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -694,8 +768,23 @@
       <c r="E8">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" t="str">
+        <v>H002</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Ms. Marvelous</v>
+      </c>
+      <c r="I8" t="str">
+        <v>New Genesis</v>
+      </c>
+      <c r="J8">
+        <v>19200</v>
+      </c>
+      <c r="K8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -712,7 +801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -729,7 +818,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -748,8 +837,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>